--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_5_23.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_5_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>584384.7262634106</v>
+        <v>616299.8895281688</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17254715.44216108</v>
+        <v>16597726.15245798</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484442</v>
+        <v>492028.9342484446</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7769698.571258527</v>
+        <v>7801264.230100834</v>
       </c>
     </row>
     <row r="11">
@@ -659,16 +659,16 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>424.2958575201043</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>244.4726225047819</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>209.0773499733576</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,10 +716,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
         <v>14.9510387864824</v>
@@ -820,22 +820,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>126.2081354080962</v>
+        <v>156.7983008290072</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,22 +899,22 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>424.2958575201043</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>331.4221655450822</v>
       </c>
       <c r="Y5" t="n">
-        <v>297.3175704785839</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
@@ -1069,10 +1069,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,13 +1105,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>122.9742767430572</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
@@ -1120,7 +1120,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>204.5989599352947</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1136,19 +1136,19 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>318.8395042868573</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>246.6139898443997</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1300,13 +1300,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>86.91244947204976</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>13.99728392830462</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -1388,7 +1388,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>71.84692347866509</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1436,7 +1436,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>136.192129728721</v>
       </c>
     </row>
     <row r="12">
@@ -1576,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>18.05677735225723</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>103.8284742946036</v>
       </c>
       <c r="U13" t="n">
         <v>275.6486707394257</v>
@@ -1622,10 +1622,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>18.2277202765949</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>33.08339867820333</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
@@ -1771,13 +1771,13 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>28.46824604904493</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>24.34318456170492</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1841,10 +1841,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>154.0254420454375</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>166.1625368329215</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
@@ -1862,7 +1862,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2011,16 +2011,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>18.0567773522574</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2068,7 +2068,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>34.21677751456746</v>
       </c>
     </row>
     <row r="20">
@@ -2090,16 +2090,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948834</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>18.22772027659534</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561533</v>
+        <v>71.84692347866479</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225746</v>
+        <v>18.0567773522574</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2491,10 +2491,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,19 +2521,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>243.4206519573293</v>
+        <v>103.8284742946034</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
-        <v>122.1591039832986</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
@@ -2542,7 +2542,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="26">
@@ -2722,10 +2722,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>43.48898701015895</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
@@ -2761,10 +2761,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>140.2653052259357</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
         <v>275.6486707394257</v>
@@ -2965,10 +2965,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
-        <v>131.9969996527474</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
         <v>284.0859530482738</v>
@@ -3187,13 +3187,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>111.5309907175804</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
         <v>174.9399834978613</v>
@@ -3241,7 +3241,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6486707394257</v>
+        <v>48.2831433436287</v>
       </c>
       <c r="V34" t="n">
         <v>284.0859530482738</v>
@@ -3433,7 +3433,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>163.9353622244306</v>
@@ -3478,7 +3478,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>48.2831433436287</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
@@ -3487,7 +3487,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>190.5122932219862</v>
       </c>
       <c r="Y37" t="n">
         <v>225.1454739790328</v>
@@ -3673,10 +3673,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>3.139541480023178</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3721,7 +3721,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>148.8597651552999</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
         <v>242.9378371199217</v>
@@ -3800,7 +3800,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>400.8069000430761</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
@@ -3904,7 +3904,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
@@ -3916,7 +3916,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>157.6489550149833</v>
@@ -3958,13 +3958,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>188.7973936038626</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>225.1454739790328</v>
+        <v>85.55329631630718</v>
       </c>
     </row>
     <row r="44">
@@ -3983,7 +3983,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932868</v>
       </c>
       <c r="F44" t="n">
         <v>423.5887552948843</v>
@@ -4153,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>157.6489550149833</v>
@@ -4198,10 +4198,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>219.5141406214754</v>
+        <v>103.3456594571954</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1167.069156190556</v>
+        <v>1158.592599512898</v>
       </c>
       <c r="C2" t="n">
-        <v>738.4874819278245</v>
+        <v>720.4501266963214</v>
       </c>
       <c r="D2" t="n">
-        <v>491.5454389937014</v>
+        <v>284.5403418707659</v>
       </c>
       <c r="E2" t="n">
-        <v>461.8110981924006</v>
+        <v>73.35109947343494</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.52407392304674</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.52407392304674</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.52407392304674</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018674</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>484.3619720031046</v>
       </c>
       <c r="K2" t="n">
-        <v>874.0494664914149</v>
+        <v>1092.064618311666</v>
       </c>
       <c r="L2" t="n">
-        <v>874.0494664914149</v>
+        <v>1132.008730489125</v>
       </c>
       <c r="M2" t="n">
-        <v>874.0494664914149</v>
+        <v>1132.008730489125</v>
       </c>
       <c r="N2" t="n">
-        <v>874.0494664914149</v>
+        <v>1132.008730489125</v>
       </c>
       <c r="O2" t="n">
-        <v>874.0494664914149</v>
+        <v>1132.008730489125</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1739.711376797686</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2286.210162756281</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509337</v>
       </c>
       <c r="S2" t="n">
-        <v>1613.531556264254</v>
+        <v>2371.712353693174</v>
       </c>
       <c r="T2" t="n">
-        <v>1613.531556264254</v>
+        <v>2371.712353693174</v>
       </c>
       <c r="U2" t="n">
-        <v>1613.531556264254</v>
+        <v>2371.712353693174</v>
       </c>
       <c r="V2" t="n">
-        <v>1613.531556264254</v>
+        <v>2009.095403627</v>
       </c>
       <c r="W2" t="n">
-        <v>1612.716505715692</v>
+        <v>1604.239949038034</v>
       </c>
       <c r="X2" t="n">
-        <v>1597.614446335406</v>
+        <v>1589.137889657748</v>
       </c>
       <c r="Y2" t="n">
-        <v>1189.32832263506</v>
+        <v>1180.851765957402</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>1298.296211021821</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>1191.839749858463</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>1096.749461005017</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>1002.62904633197</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>919.245207948132</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>833.8601182143159</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>792.1244660305283</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>818.1881391909859</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>1142.746464157198</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>1750.449110465759</v>
       </c>
       <c r="L3" t="n">
-        <v>804.6185656731816</v>
+        <v>1750.449110465759</v>
       </c>
       <c r="M3" t="n">
-        <v>804.6185656731816</v>
+        <v>1750.449110465759</v>
       </c>
       <c r="N3" t="n">
-        <v>804.6185656731816</v>
+        <v>1797.452510782922</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>1797.452510782922</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1797.452510782922</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>2338.191449414998</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509337</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>2391.90878995772</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>2261.730146288322</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>2085.39359928829</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1886.27608135029</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>1700.953327083484</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>1546.085891322364</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>1419.600112101584</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>206.5053801183834</v>
+        <v>1128.165445162068</v>
       </c>
       <c r="C4" t="n">
-        <v>33.94366860160834</v>
+        <v>955.6037336452931</v>
       </c>
       <c r="D4" t="n">
-        <v>33.94366860160834</v>
+        <v>789.7257408468158</v>
       </c>
       <c r="E4" t="n">
-        <v>33.94366860160834</v>
+        <v>619.967737097553</v>
       </c>
       <c r="F4" t="n">
-        <v>33.94366860160834</v>
+        <v>443.2606830593092</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>277.6694080851369</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>137.7672337755114</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018674</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018674</v>
       </c>
       <c r="K4" t="n">
-        <v>308.7021231727439</v>
+        <v>323.8657391213223</v>
       </c>
       <c r="L4" t="n">
-        <v>726.9120049407049</v>
+        <v>742.0756208892833</v>
       </c>
       <c r="M4" t="n">
-        <v>726.9120049407049</v>
+        <v>1201.559488070196</v>
       </c>
       <c r="N4" t="n">
-        <v>1146.964903885608</v>
+        <v>1519.995309448882</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1939.664558674663</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>2287.171452645005</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509337</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>2433.946406214709</v>
       </c>
       <c r="S4" t="n">
-        <v>1516.524240083786</v>
+        <v>2274.705037512706</v>
       </c>
       <c r="T4" t="n">
-        <v>1270.644793662241</v>
+        <v>2028.825591091161</v>
       </c>
       <c r="U4" t="n">
-        <v>1270.644793662241</v>
+        <v>1750.392590344266</v>
       </c>
       <c r="V4" t="n">
-        <v>1143.161828603558</v>
+        <v>1592.010468294764</v>
       </c>
       <c r="W4" t="n">
-        <v>871.1354241898498</v>
+        <v>1319.984063881055</v>
       </c>
       <c r="X4" t="n">
-        <v>625.7436695232623</v>
+        <v>1319.984063881055</v>
       </c>
       <c r="Y4" t="n">
-        <v>398.3239988373705</v>
+        <v>1319.984063881055</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>550.6055673650617</v>
+        <v>978.3722678587817</v>
       </c>
       <c r="C5" t="n">
-        <v>516.503498588889</v>
+        <v>944.270199082609</v>
       </c>
       <c r="D5" t="n">
-        <v>87.92182432615731</v>
+        <v>912.4008182974576</v>
       </c>
       <c r="E5" t="n">
-        <v>58.18748352485655</v>
+        <v>882.6664774961569</v>
       </c>
       <c r="F5" t="n">
-        <v>34.36045797446834</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G5" t="n">
-        <v>34.36045797446834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M5" t="n">
-        <v>453.9965675465116</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N5" t="n">
-        <v>874.0494664914149</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="O5" t="n">
-        <v>1294.102365436318</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="P5" t="n">
-        <v>1697.183430080417</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="Q5" t="n">
-        <v>1697.183430080417</v>
+        <v>2582.420166112558</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W5" t="n">
-        <v>1292.327975491451</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X5" t="n">
-        <v>873.1855120707613</v>
+        <v>1004.877153963228</v>
       </c>
       <c r="Y5" t="n">
-        <v>572.8647338095655</v>
+        <v>1000.631434303285</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L6" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M6" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N6" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O6" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>973.0996549038641</v>
+        <v>1043.799427915185</v>
       </c>
       <c r="C7" t="n">
-        <v>800.5379433870891</v>
+        <v>871.2377163984103</v>
       </c>
       <c r="D7" t="n">
-        <v>634.6599505886118</v>
+        <v>705.359723599933</v>
       </c>
       <c r="E7" t="n">
-        <v>464.9019468393491</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F7" t="n">
-        <v>288.1948928011053</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G7" t="n">
-        <v>122.603617826933</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>308.7021231727439</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>726.9120049407049</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>1146.964903885608</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1567.017802830512</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.183430080417</v>
+        <v>2545.844385276825</v>
       </c>
       <c r="U7" t="n">
-        <v>1697.183430080417</v>
+        <v>2267.41138452993</v>
       </c>
       <c r="V7" t="n">
-        <v>1697.183430080417</v>
+        <v>1980.45587640036</v>
       </c>
       <c r="W7" t="n">
-        <v>1425.157025666709</v>
+        <v>1708.429471986652</v>
       </c>
       <c r="X7" t="n">
-        <v>1179.765271000121</v>
+        <v>1463.037717320064</v>
       </c>
       <c r="Y7" t="n">
-        <v>973.0996549038641</v>
+        <v>1235.618046634173</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>156.3047513715257</v>
+        <v>1560.335719634342</v>
       </c>
       <c r="C8" t="n">
-        <v>122.202682595353</v>
+        <v>1526.233650858169</v>
       </c>
       <c r="D8" t="n">
-        <v>90.3333018102016</v>
+        <v>1204.173545517909</v>
       </c>
       <c r="E8" t="n">
-        <v>60.59896100890084</v>
+        <v>770.3988006762045</v>
       </c>
       <c r="F8" t="n">
-        <v>36.77193545851263</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="G8" t="n">
-        <v>36.77193545851263</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H8" t="n">
-        <v>36.77193545851263</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>36.77193545851263</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>472.0266229114305</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>759.3373055743871</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L8" t="n">
-        <v>1214.390006873481</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="M8" t="n">
-        <v>1214.390006873481</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="N8" t="n">
-        <v>1214.390006873481</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O8" t="n">
-        <v>1214.390006873481</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="P8" t="n">
-        <v>1214.390006873481</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q8" t="n">
-        <v>1669.442708172575</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>1838.596772925631</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1838.596772925631</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1618.52954579867</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>1369.424505551802</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V8" t="n">
-        <v>1006.807555485628</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="W8" t="n">
-        <v>1005.992504937065</v>
+        <v>2005.983069159478</v>
       </c>
       <c r="X8" t="n">
-        <v>586.850041516376</v>
+        <v>1586.840605738788</v>
       </c>
       <c r="Y8" t="n">
-        <v>178.5639178160294</v>
+        <v>1582.594886078846</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>542.9436804498055</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>436.4872192864477</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>341.396930433001</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>247.2765157599547</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>163.8926773761163</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>78.50758764230017</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>36.77193545851263</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>62.83560861897023</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>387.3939335851826</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>842.4466348842762</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>842.4466348842762</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>842.4466348842762</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>842.4466348842762</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>842.4466348842762</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1127.786217543888</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1582.838918842982</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1700.011696937322</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1636.556259385705</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1506.377615716306</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1330.041068716275</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1130.923550778274</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>945.6007965114679</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>790.7333607503479</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>664.2475815295686</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>887.0112207245952</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>714.4495092078201</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>548.5715164093428</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>378.8135126600801</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>378.8135126600801</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>213.2222376859078</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>125.4318846838373</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>36.77193545851263</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>123.3516206232025</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>398.1100751943381</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>816.3199569622991</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>1271.372658261393</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1713.631461419037</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1838.596772925631</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1838.596772925631</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1838.596772925631</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1838.596772925631</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1838.596772925631</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T10" t="n">
-        <v>1838.596772925631</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>1838.596772925631</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1551.641264796062</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1551.641264796062</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1306.249510129474</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>1078.829839443582</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2522.958394689264</v>
+        <v>2523.375184062124</v>
       </c>
       <c r="C11" t="n">
-        <v>2084.815921872687</v>
+        <v>2085.232711245548</v>
       </c>
       <c r="D11" t="n">
-        <v>1648.906137047132</v>
+        <v>1649.322926419992</v>
       </c>
       <c r="E11" t="n">
-        <v>1215.131392205427</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F11" t="n">
-        <v>787.263962614635</v>
+        <v>787.680751987495</v>
       </c>
       <c r="G11" t="n">
-        <v>385.8661312378989</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H11" t="n">
-        <v>96.73597668111519</v>
+        <v>97.15276605397517</v>
       </c>
       <c r="I11" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J11" t="n">
         <v>531.9906641340331</v>
@@ -5045,46 +5045,46 @@
         <v>1366.340956092211</v>
       </c>
       <c r="L11" t="n">
-        <v>1366.340956092211</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M11" t="n">
-        <v>1366.340956092211</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N11" t="n">
-        <v>2312.656441940406</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="O11" t="n">
-        <v>3292.836108510713</v>
+        <v>3421.580588915377</v>
       </c>
       <c r="P11" t="n">
-        <v>4121.145983344109</v>
+        <v>4249.890463748773</v>
       </c>
       <c r="Q11" t="n">
-        <v>4667.644769302703</v>
+        <v>4796.389249707368</v>
       </c>
       <c r="R11" t="n">
         <v>4836.798834055759</v>
       </c>
       <c r="S11" t="n">
-        <v>4836.798834055759</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T11" t="n">
-        <v>4616.731606928798</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="U11" t="n">
-        <v>4544.158956950348</v>
+        <v>4273.857430429651</v>
       </c>
       <c r="V11" t="n">
-        <v>4181.542006884174</v>
+        <v>3911.240480363477</v>
       </c>
       <c r="W11" t="n">
-        <v>3776.686552295208</v>
+        <v>3506.385025774511</v>
       </c>
       <c r="X11" t="n">
-        <v>3357.544088874518</v>
+        <v>3087.242562353822</v>
       </c>
       <c r="Y11" t="n">
-        <v>2949.257965174172</v>
+        <v>2949.674754547032</v>
       </c>
     </row>
     <row r="12">
@@ -5112,7 +5112,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H12" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I12" t="n">
         <v>122.7996498415728</v>
@@ -5121,10 +5121,10 @@
         <v>447.3579748077851</v>
       </c>
       <c r="K12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M12" t="n">
         <v>1102.064021433509</v>
@@ -5188,16 +5188,16 @@
         <v>262.3272516552875</v>
       </c>
       <c r="G13" t="n">
-        <v>96.73597668111506</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="H13" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I13" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J13" t="n">
-        <v>183.3156618458051</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K13" t="n">
         <v>458.0741164169406</v>
@@ -5224,7 +5224,7 @@
         <v>2713.395586583915</v>
       </c>
       <c r="S13" t="n">
-        <v>2695.15641754123</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T13" t="n">
         <v>2449.276971119686</v>
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2252.656868168568</v>
+        <v>2522.958394689265</v>
       </c>
       <c r="C14" t="n">
-        <v>1814.514395351991</v>
+        <v>2084.815921872688</v>
       </c>
       <c r="D14" t="n">
-        <v>1378.604610526436</v>
+        <v>1648.906137047133</v>
       </c>
       <c r="E14" t="n">
-        <v>944.829865684731</v>
+        <v>1215.131392205428</v>
       </c>
       <c r="F14" t="n">
-        <v>516.9624360939388</v>
+        <v>787.2639626146356</v>
       </c>
       <c r="G14" t="n">
-        <v>115.5646047172022</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H14" t="n">
-        <v>97.15276605397518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I14" t="n">
         <v>96.73597668111519</v>
@@ -5285,43 +5285,43 @@
         <v>2441.40092234507</v>
       </c>
       <c r="M14" t="n">
-        <v>2441.40092234507</v>
+        <v>2481.810506693463</v>
       </c>
       <c r="N14" t="n">
-        <v>2441.40092234507</v>
+        <v>2481.810506693463</v>
       </c>
       <c r="O14" t="n">
-        <v>3421.580588915377</v>
+        <v>3461.990173263769</v>
       </c>
       <c r="P14" t="n">
-        <v>4249.890463748773</v>
+        <v>4290.300048097165</v>
       </c>
       <c r="Q14" t="n">
-        <v>4796.389249707368</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="R14" t="n">
         <v>4836.798834055759</v>
       </c>
       <c r="S14" t="n">
-        <v>4753.146960239596</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="T14" t="n">
-        <v>4533.079733112635</v>
+        <v>4803.381259633332</v>
       </c>
       <c r="U14" t="n">
-        <v>4273.857430429652</v>
+        <v>4544.158956950349</v>
       </c>
       <c r="V14" t="n">
-        <v>3911.240480363478</v>
+        <v>4181.542006884175</v>
       </c>
       <c r="W14" t="n">
-        <v>3506.385025774512</v>
+        <v>3776.686552295208</v>
       </c>
       <c r="X14" t="n">
-        <v>3087.242562353822</v>
+        <v>3357.544088874519</v>
       </c>
       <c r="Y14" t="n">
-        <v>2678.956438653476</v>
+        <v>2949.257965174173</v>
       </c>
     </row>
     <row r="15">
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>806.2298140987272</v>
+        <v>806.2298140987281</v>
       </c>
       <c r="C16" t="n">
-        <v>633.6681025819521</v>
+        <v>633.668102581953</v>
       </c>
       <c r="D16" t="n">
-        <v>467.7901097834749</v>
+        <v>467.7901097834757</v>
       </c>
       <c r="E16" t="n">
-        <v>298.0321060342121</v>
+        <v>439.0343056935313</v>
       </c>
       <c r="F16" t="n">
-        <v>121.3250519959684</v>
+        <v>262.3272516552875</v>
       </c>
       <c r="G16" t="n">
         <v>96.73597668111519</v>
@@ -5470,16 +5470,16 @@
         <v>2029.841770713472</v>
       </c>
       <c r="V16" t="n">
-        <v>1742.886262583902</v>
+        <v>1742.886262583903</v>
       </c>
       <c r="W16" t="n">
         <v>1470.859858170194</v>
       </c>
       <c r="X16" t="n">
-        <v>1225.468103503606</v>
+        <v>1225.468103503607</v>
       </c>
       <c r="Y16" t="n">
-        <v>998.0484328177142</v>
+        <v>998.0484328177151</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2523.375184062124</v>
+        <v>2252.656868168568</v>
       </c>
       <c r="C17" t="n">
-        <v>2085.232711245548</v>
+        <v>2084.815921872688</v>
       </c>
       <c r="D17" t="n">
-        <v>1649.322926419992</v>
+        <v>1648.906137047132</v>
       </c>
       <c r="E17" t="n">
-        <v>1215.548181578287</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F17" t="n">
-        <v>787.680751987495</v>
+        <v>787.263962614635</v>
       </c>
       <c r="G17" t="n">
-        <v>386.2829206107589</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H17" t="n">
-        <v>97.15276605397514</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I17" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J17" t="n">
         <v>531.9906641340331</v>
@@ -5522,19 +5522,19 @@
         <v>2441.40092234507</v>
       </c>
       <c r="M17" t="n">
-        <v>3028.309292652057</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N17" t="n">
-        <v>3028.309292652057</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="O17" t="n">
-        <v>4008.488959222363</v>
+        <v>3421.580588915377</v>
       </c>
       <c r="P17" t="n">
-        <v>4836.798834055759</v>
+        <v>4249.890463748773</v>
       </c>
       <c r="Q17" t="n">
-        <v>4836.798834055759</v>
+        <v>4796.389249707368</v>
       </c>
       <c r="R17" t="n">
         <v>4836.798834055759</v>
@@ -5543,22 +5543,22 @@
         <v>4753.146960239596</v>
       </c>
       <c r="T17" t="n">
-        <v>4533.079733112634</v>
+        <v>4533.079733112635</v>
       </c>
       <c r="U17" t="n">
-        <v>4273.857430429651</v>
+        <v>4273.857430429652</v>
       </c>
       <c r="V17" t="n">
-        <v>3911.240480363477</v>
+        <v>3911.240480363478</v>
       </c>
       <c r="W17" t="n">
-        <v>3506.385025774511</v>
+        <v>3506.385025774512</v>
       </c>
       <c r="X17" t="n">
         <v>3087.242562353822</v>
       </c>
       <c r="Y17" t="n">
-        <v>2678.956438653475</v>
+        <v>2678.956438653476</v>
       </c>
     </row>
     <row r="18">
@@ -5586,7 +5586,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H18" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I18" t="n">
         <v>122.7996498415728</v>
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>947.2320137580465</v>
+        <v>999.0870832547528</v>
       </c>
       <c r="C19" t="n">
-        <v>774.6703022412714</v>
+        <v>826.5253717379777</v>
       </c>
       <c r="D19" t="n">
-        <v>608.7923094427941</v>
+        <v>660.6473789395004</v>
       </c>
       <c r="E19" t="n">
-        <v>439.0343056935313</v>
+        <v>490.8893751902377</v>
       </c>
       <c r="F19" t="n">
-        <v>262.3272516552875</v>
+        <v>490.8893751902377</v>
       </c>
       <c r="G19" t="n">
-        <v>96.73597668111518</v>
+        <v>325.2981002160653</v>
       </c>
       <c r="H19" t="n">
-        <v>96.73597668111518</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="I19" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J19" t="n">
-        <v>183.315661845805</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K19" t="n">
         <v>458.0741164169406</v>
@@ -5698,25 +5698,25 @@
         <v>2713.395586583915</v>
       </c>
       <c r="S19" t="n">
-        <v>2695.15641754123</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T19" t="n">
-        <v>2449.276971119686</v>
+        <v>2308.274771460366</v>
       </c>
       <c r="U19" t="n">
-        <v>2170.843970372791</v>
+        <v>2029.841770713471</v>
       </c>
       <c r="V19" t="n">
-        <v>1883.888462243221</v>
+        <v>1742.886262583902</v>
       </c>
       <c r="W19" t="n">
-        <v>1611.862057829513</v>
+        <v>1470.859858170194</v>
       </c>
       <c r="X19" t="n">
-        <v>1366.470303162925</v>
+        <v>1225.468103503606</v>
       </c>
       <c r="Y19" t="n">
-        <v>1139.050632477034</v>
+        <v>1190.90570197374</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2252.656868168567</v>
+        <v>2522.958394689264</v>
       </c>
       <c r="C20" t="n">
-        <v>1814.514395351991</v>
+        <v>2084.815921872688</v>
       </c>
       <c r="D20" t="n">
-        <v>1378.604610526435</v>
+        <v>1648.906137047132</v>
       </c>
       <c r="E20" t="n">
-        <v>944.8298656847301</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F20" t="n">
-        <v>516.9624360939389</v>
+        <v>787.263962614635</v>
       </c>
       <c r="G20" t="n">
-        <v>115.5646047172028</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H20" t="n">
-        <v>97.15276605397517</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I20" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J20" t="n">
         <v>531.9906641340331</v>
@@ -5756,46 +5756,46 @@
         <v>1366.340956092211</v>
       </c>
       <c r="L20" t="n">
-        <v>2441.40092234507</v>
+        <v>2312.656441940406</v>
       </c>
       <c r="M20" t="n">
-        <v>2441.40092234507</v>
+        <v>2312.656441940406</v>
       </c>
       <c r="N20" t="n">
-        <v>2441.40092234507</v>
+        <v>2312.656441940406</v>
       </c>
       <c r="O20" t="n">
-        <v>3292.836108510712</v>
+        <v>3292.836108510713</v>
       </c>
       <c r="P20" t="n">
-        <v>4121.145983344108</v>
+        <v>4121.145983344109</v>
       </c>
       <c r="Q20" t="n">
-        <v>4667.644769302702</v>
+        <v>4667.644769302703</v>
       </c>
       <c r="R20" t="n">
         <v>4836.798834055759</v>
       </c>
       <c r="S20" t="n">
-        <v>4753.146960239596</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="T20" t="n">
-        <v>4533.079733112634</v>
+        <v>4616.731606928798</v>
       </c>
       <c r="U20" t="n">
-        <v>4273.857430429651</v>
+        <v>4544.158956950349</v>
       </c>
       <c r="V20" t="n">
-        <v>3911.240480363477</v>
+        <v>4181.542006884175</v>
       </c>
       <c r="W20" t="n">
-        <v>3506.385025774511</v>
+        <v>3776.686552295208</v>
       </c>
       <c r="X20" t="n">
-        <v>3087.242562353822</v>
+        <v>3357.544088874519</v>
       </c>
       <c r="Y20" t="n">
-        <v>2678.956438653475</v>
+        <v>2949.257965174172</v>
       </c>
     </row>
     <row r="21">
@@ -5823,7 +5823,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H21" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I21" t="n">
         <v>122.7996498415728</v>
@@ -5884,10 +5884,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>947.2320137580464</v>
+        <v>947.2320137580463</v>
       </c>
       <c r="C22" t="n">
-        <v>774.6703022412713</v>
+        <v>774.6703022412712</v>
       </c>
       <c r="D22" t="n">
         <v>608.792309442794</v>
@@ -5899,16 +5899,16 @@
         <v>262.3272516552875</v>
       </c>
       <c r="G22" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="H22" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I22" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J22" t="n">
-        <v>183.315661845805</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K22" t="n">
         <v>458.0741164169406</v>
@@ -5941,7 +5941,7 @@
         <v>2449.276971119685</v>
       </c>
       <c r="U22" t="n">
-        <v>2170.843970372791</v>
+        <v>2170.84397037279</v>
       </c>
       <c r="V22" t="n">
         <v>1883.888462243221</v>
@@ -5953,7 +5953,7 @@
         <v>1366.470303162925</v>
       </c>
       <c r="Y22" t="n">
-        <v>1139.050632477034</v>
+        <v>1139.050632477033</v>
       </c>
     </row>
     <row r="23">
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6169,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1890.555778681944</v>
+        <v>1889.413325832885</v>
       </c>
       <c r="W25" t="n">
-        <v>1618.529374268236</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1373.137619601648</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6227,19 +6227,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>775.0235620688169</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L26" t="n">
-        <v>1850.083528321676</v>
+        <v>1021.77365348828</v>
       </c>
       <c r="M26" t="n">
-        <v>3007.131363532227</v>
+        <v>2178.821488698831</v>
       </c>
       <c r="N26" t="n">
-        <v>4132.862346968674</v>
+        <v>3304.552472135278</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.04201353898</v>
+        <v>4284.732138705584</v>
       </c>
       <c r="P26" t="n">
         <v>5113.04201353898</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>915.9519976190925</v>
+        <v>970.9960463903953</v>
       </c>
       <c r="C28" t="n">
-        <v>743.3902861023174</v>
+        <v>798.4343348736203</v>
       </c>
       <c r="D28" t="n">
-        <v>577.5122933038401</v>
+        <v>632.556342075143</v>
       </c>
       <c r="E28" t="n">
-        <v>407.7542895545774</v>
+        <v>462.7983383258802</v>
       </c>
       <c r="F28" t="n">
-        <v>407.7542895545774</v>
+        <v>286.0912842876364</v>
       </c>
       <c r="G28" t="n">
         <v>242.1630145804051</v>
@@ -6409,25 +6409,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T28" t="n">
-        <v>2417.996954980732</v>
+        <v>2473.041003752035</v>
       </c>
       <c r="U28" t="n">
-        <v>2139.563954233837</v>
+        <v>2194.60800300514</v>
       </c>
       <c r="V28" t="n">
-        <v>1852.608446104267</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W28" t="n">
-        <v>1580.582041690559</v>
+        <v>1635.626090461862</v>
       </c>
       <c r="X28" t="n">
-        <v>1335.190287023971</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y28" t="n">
-        <v>1107.77061633808</v>
+        <v>1162.814665109383</v>
       </c>
     </row>
     <row r="29">
@@ -6470,7 +6470,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
         <v>2588.899621423627</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6643,28 +6643,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2538.261260176948</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2538.261260176948</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2404.930957497405</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6698,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>811.7546776883921</v>
+        <v>1041.416826573035</v>
       </c>
       <c r="C34" t="n">
-        <v>811.7546776883921</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D34" t="n">
-        <v>645.8766848899148</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E34" t="n">
-        <v>533.2191185085204</v>
+        <v>533.2191185085203</v>
       </c>
       <c r="F34" t="n">
         <v>356.5120644702766</v>
@@ -6889,19 +6889,19 @@
         <v>2313.799635050031</v>
       </c>
       <c r="U34" t="n">
-        <v>2035.366634303137</v>
+        <v>2265.028783187779</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.411126173567</v>
+        <v>1978.07327505821</v>
       </c>
       <c r="W34" t="n">
-        <v>1476.384721759859</v>
+        <v>1706.046870644502</v>
       </c>
       <c r="X34" t="n">
-        <v>1230.992967093271</v>
+        <v>1460.655115977914</v>
       </c>
       <c r="Y34" t="n">
-        <v>1003.573296407379</v>
+        <v>1233.235445292023</v>
       </c>
     </row>
     <row r="35">
@@ -6923,28 +6923,28 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L35" t="n">
-        <v>1463.16863798718</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M35" t="n">
-        <v>1463.16863798718</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N35" t="n">
         <v>2588.899621423627</v>
@@ -6962,25 +6962,25 @@
         <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1041.416826573036</v>
+        <v>864.7097725347917</v>
       </c>
       <c r="C37" t="n">
-        <v>868.8551150562604</v>
+        <v>692.1480610180166</v>
       </c>
       <c r="D37" t="n">
-        <v>702.9771222577831</v>
+        <v>526.2700682195393</v>
       </c>
       <c r="E37" t="n">
-        <v>533.2191185085204</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="F37" t="n">
         <v>356.5120644702766</v>
@@ -7126,19 +7126,19 @@
         <v>2313.799635050031</v>
       </c>
       <c r="U37" t="n">
-        <v>2265.02878318778</v>
+        <v>2035.366634303137</v>
       </c>
       <c r="V37" t="n">
-        <v>1978.073275058211</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W37" t="n">
-        <v>1706.046870644502</v>
+        <v>1476.384721759859</v>
       </c>
       <c r="X37" t="n">
-        <v>1460.655115977915</v>
+        <v>1283.94806193967</v>
       </c>
       <c r="Y37" t="n">
-        <v>1233.235445292023</v>
+        <v>1056.528391253779</v>
       </c>
     </row>
     <row r="38">
@@ -7163,7 +7163,7 @@
         <v>793.2056155771594</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7184,16 +7184,16 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>3304.552472135278</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>4284.732138705584</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
         <v>5113.04201353898</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1092.659051657336</v>
+        <v>790.336856393764</v>
       </c>
       <c r="C40" t="n">
-        <v>920.0973401405612</v>
+        <v>617.775144876989</v>
       </c>
       <c r="D40" t="n">
-        <v>754.2193473420839</v>
+        <v>451.8971520785117</v>
       </c>
       <c r="E40" t="n">
-        <v>584.4613435928212</v>
+        <v>282.1391483292489</v>
       </c>
       <c r="F40" t="n">
-        <v>407.7542895545774</v>
+        <v>105.432094291005</v>
       </c>
       <c r="G40" t="n">
-        <v>242.1630145804051</v>
+        <v>105.432094291005</v>
       </c>
       <c r="H40" t="n">
         <v>102.2608402707796</v>
@@ -7354,28 +7354,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S40" t="n">
-        <v>2718.920450173579</v>
+        <v>2538.261260176948</v>
       </c>
       <c r="T40" t="n">
-        <v>2473.041003752035</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U40" t="n">
-        <v>2194.60800300514</v>
+        <v>2013.948813008509</v>
       </c>
       <c r="V40" t="n">
-        <v>1907.65249487557</v>
+        <v>1726.993304878939</v>
       </c>
       <c r="W40" t="n">
-        <v>1757.289095728803</v>
+        <v>1454.966900465231</v>
       </c>
       <c r="X40" t="n">
-        <v>1511.897341062215</v>
+        <v>1209.575145798643</v>
       </c>
       <c r="Y40" t="n">
-        <v>1284.477670376323</v>
+        <v>982.1554751127512</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
         <v>1654.847790009657</v>
@@ -7412,19 +7412,19 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>1039.550377927472</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>2114.610344180331</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>3271.658179390882</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>4397.38916282733</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O41" t="n">
-        <v>4397.38916282733</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P41" t="n">
         <v>4397.38916282733</v>
@@ -7445,16 +7445,16 @@
         <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W41" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="42">
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>871.6588228237729</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C43" t="n">
-        <v>699.0971113069977</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D43" t="n">
-        <v>533.2191185085204</v>
+        <v>614.3171730324585</v>
       </c>
       <c r="E43" t="n">
-        <v>533.2191185085204</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F43" t="n">
-        <v>356.5120644702766</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G43" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H43" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
         <v>102.2608402707796</v>
@@ -7591,28 +7591,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2538.261260176948</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T43" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U43" t="n">
-        <v>2013.948813008509</v>
+        <v>2035.366634303137</v>
       </c>
       <c r="V43" t="n">
-        <v>1726.993304878939</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W43" t="n">
-        <v>1536.288866895239</v>
+        <v>1476.384721759859</v>
       </c>
       <c r="X43" t="n">
-        <v>1290.897112228652</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y43" t="n">
-        <v>1063.47744154276</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="44">
@@ -7628,7 +7628,7 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E44" t="n">
         <v>1221.073045167952</v>
@@ -7646,28 +7646,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N44" t="n">
-        <v>2758.053686176683</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O44" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P44" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
         <v>5113.04201353898</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1041.416826573035</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C46" t="n">
-        <v>868.8551150562604</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D46" t="n">
-        <v>702.9771222577831</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E46" t="n">
-        <v>533.2191185085204</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F46" t="n">
-        <v>356.5120644702766</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
         <v>102.2608402707796</v>
@@ -7828,28 +7828,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2538.261260176948</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T46" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U46" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V46" t="n">
-        <v>1726.993304878939</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W46" t="n">
-        <v>1454.96690046523</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X46" t="n">
-        <v>1233.235445292023</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y46" t="n">
-        <v>1233.235445292023</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
   </sheetData>
@@ -7976,13 +7976,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773343</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>40.34758805803972</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7994,10 +7994,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>613.8410568773343</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,7 +8058,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773343</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8067,16 +8067,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>47.47818213854839</v>
       </c>
       <c r="O3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8143,13 +8143,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>321.652344826955</v>
       </c>
       <c r="O4" t="n">
-        <v>34.867532687005</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -8222,22 +8222,22 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="P5" t="n">
-        <v>407.1525905495951</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>88.52591951401018</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,7 +8295,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8310,10 +8310,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>358.9284720888814</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,7 +8371,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -8380,19 +8380,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>131.4804315655613</v>
+        <v>423.9083325512941</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>290.2128107706632</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>459.6491932314078</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,16 +8465,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314079</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,7 +8532,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.6491932314078</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8544,13 +8544,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="P9" t="n">
-        <v>288.2218006662745</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314079</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8617,19 +8617,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314078</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>126.2275873803978</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8693,13 +8693,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>955.8742281294903</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8711,7 +8711,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>40.81776196807186</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,13 +8769,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8933,7 +8933,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>40.81776196807323</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>40.81776196807277</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>592.8367376838246</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9182,10 +9182,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>40.81776196807277</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9404,7 +9404,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>955.8742281294903</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9413,7 +9413,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>860.0355415814561</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458549</v>
@@ -9875,10 +9875,10 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>928.8008214318188</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
@@ -9890,7 +9890,7 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -10118,10 +10118,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,19 +10583,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>92.22506899525706</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>583.0591140826364</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10832,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>866.2895820207509</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10841,10 +10841,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11060,22 +11060,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>507.105909296742</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
         <v>842.7780726850283</v>
@@ -11306,7 +11306,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>753.9218057523904</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,13 +23306,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>184.7831561774882</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>268.011132734622</v>
       </c>
     </row>
     <row r="12">
@@ -23464,10 +23464,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>139.5921776627261</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>139.5921776627257</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>268.011132734621</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,10 +23543,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>184.7831561774884</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23659,13 +23659,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>139.5921776627252</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>139.5921776627257</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
@@ -23729,10 +23729,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>268.0111327346212</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>267.5985112554894</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23750,7 +23750,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23899,16 +23899,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627259</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>190.9286964644653</v>
       </c>
     </row>
     <row r="20">
@@ -23984,10 +23984,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>268.0111327346206</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,13 +24017,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>184.7831561774885</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627258</v>
+        <v>139.5921776627259</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,19 +24409,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>161.9268490649752</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24610,10 +24610,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24649,10 +24649,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
-        <v>103.1553467313935</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,16 +24883,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="T31" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>143.6516710866783</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25075,13 +25075,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>56.52943299418969</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>227.365527395797</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25321,7 +25321,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>227.365527395797</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>52.42554389793546</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25561,10 +25561,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>135.363611086506</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25609,7 +25609,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>120.4463752142715</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25792,7 +25792,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25846,13 +25846,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>80.50874676570882</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>139.5921776627256</v>
       </c>
     </row>
     <row r="44">
@@ -25871,7 +25871,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26086,10 +26086,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>23.42369649844628</v>
+        <v>139.5921776627263</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>660633.8338479858</v>
+        <v>670353.0989996732</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>660633.8338479858</v>
+        <v>673105.3359056532</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>662446.6386298531</v>
+        <v>673105.3359056532</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>658464.0902141177</v>
+        <v>658464.0902141175</v>
       </c>
     </row>
     <row r="6">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>686252.0272599394</v>
+        <v>686252.0272599391</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>686252.0272599394</v>
+        <v>686252.0272599391</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>686252.0272599394</v>
+        <v>686252.0272599391</v>
       </c>
     </row>
   </sheetData>
@@ -26320,7 +26320,7 @@
         <v>308284.7089369848</v>
       </c>
       <c r="E2" t="n">
-        <v>290676.2413337139</v>
+        <v>290676.2413337138</v>
       </c>
       <c r="F2" t="n">
         <v>290676.2413337139</v>
@@ -26329,7 +26329,7 @@
         <v>290676.2413337139</v>
       </c>
       <c r="H2" t="n">
-        <v>290676.241333714</v>
+        <v>290676.2413337139</v>
       </c>
       <c r="I2" t="n">
         <v>302943.1108789775</v>
@@ -26347,7 +26347,7 @@
         <v>302943.1108789776</v>
       </c>
       <c r="N2" t="n">
-        <v>302943.1108789776</v>
+        <v>302943.1108789775</v>
       </c>
       <c r="O2" t="n">
         <v>302943.1108789776</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>205712.2565039029</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>17340.54437390668</v>
       </c>
       <c r="D3" t="n">
-        <v>10981.8066720022</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>223799.2937520279</v>
+        <v>161735.0752101144</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>18364.71563283952</v>
+        <v>18364.71563283946</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>160607.8294856132</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>13814.00856784516</v>
       </c>
       <c r="L3" t="n">
-        <v>8947.611088509506</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>186790.9866104681</v>
+        <v>134989.9446130034</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,31 +26415,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>199828.8262465156</v>
+        <v>166168.382099951</v>
       </c>
       <c r="C4" t="n">
-        <v>199828.8262465156</v>
+        <v>156636.6412526738</v>
       </c>
       <c r="D4" t="n">
-        <v>193550.5929483865</v>
+        <v>156636.6412526738</v>
       </c>
       <c r="E4" t="n">
-        <v>65247.19221856657</v>
+        <v>65247.19221856655</v>
       </c>
       <c r="F4" t="n">
-        <v>65247.19221856655</v>
+        <v>65247.19221856656</v>
       </c>
       <c r="G4" t="n">
         <v>65247.19221856655</v>
       </c>
       <c r="H4" t="n">
-        <v>65247.1922185666</v>
+        <v>65247.19221856656</v>
       </c>
       <c r="I4" t="n">
+        <v>68000.69828933281</v>
+      </c>
+      <c r="J4" t="n">
         <v>68000.69828933279</v>
-      </c>
-      <c r="J4" t="n">
-        <v>68000.69828933281</v>
       </c>
       <c r="K4" t="n">
         <v>68000.69828933281</v>
@@ -26451,13 +26451,13 @@
         <v>68000.69828933279</v>
       </c>
       <c r="N4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="O4" t="n">
-        <v>68000.69828933285</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="P4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933281</v>
       </c>
     </row>
     <row r="5">
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>70949.13625814192</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>61574.2709484696</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73519.34227764753</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="F5" t="n">
         <v>73519.34227764753</v>
       </c>
       <c r="G5" t="n">
-        <v>73519.34227764752</v>
+        <v>73519.34227764753</v>
       </c>
       <c r="H5" t="n">
-        <v>73519.34227764752</v>
+        <v>73519.34227764753</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26500,7 +26500,7 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
         <v>77718.2386057925</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-93160.20610646304</v>
+        <v>-134545.065925011</v>
       </c>
       <c r="C6" t="n">
-        <v>49031.0945532469</v>
+        <v>60094.99874864657</v>
       </c>
       <c r="D6" t="n">
-        <v>42178.03836812651</v>
+        <v>77435.54312255325</v>
       </c>
       <c r="E6" t="n">
-        <v>-71889.58691452804</v>
+        <v>-9901.926927411478</v>
       </c>
       <c r="F6" t="n">
-        <v>151909.7068374998</v>
+        <v>151833.148282703</v>
       </c>
       <c r="G6" t="n">
-        <v>151909.7068374998</v>
+        <v>151833.148282703</v>
       </c>
       <c r="H6" t="n">
-        <v>151909.7068374999</v>
+        <v>151833.148282703</v>
       </c>
       <c r="I6" t="n">
-        <v>138859.4583510127</v>
+        <v>138836.23401163</v>
       </c>
       <c r="J6" t="n">
-        <v>46209.70863886201</v>
+        <v>-3406.879841143736</v>
       </c>
       <c r="K6" t="n">
-        <v>157224.1739838522</v>
+        <v>143386.9410766244</v>
       </c>
       <c r="L6" t="n">
-        <v>148276.5628953427</v>
+        <v>157200.9496444696</v>
       </c>
       <c r="M6" t="n">
-        <v>-29566.81262661579</v>
+        <v>22211.00503146619</v>
       </c>
       <c r="N6" t="n">
-        <v>157224.1739838523</v>
+        <v>157200.9496444696</v>
       </c>
       <c r="O6" t="n">
-        <v>157224.1739838523</v>
+        <v>157200.9496444696</v>
       </c>
       <c r="P6" t="n">
-        <v>157224.1739838522</v>
+        <v>157200.9496444695</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773343</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>459.6491932314078</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
         <v>1209.19970851394</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773343</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>53.67414973052269</v>
       </c>
       <c r="D4" t="n">
-        <v>35.35333571130347</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>749.550515282532</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>69.06079487080569</v>
+        <v>69.06079487080547</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773343</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052269</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130347</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825318</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773343</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052269</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130347</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.550515282532</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,16 +27379,16 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>9.465190568306582</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>187.078064472518</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
+        <v>220.3596474199302</v>
+      </c>
+      <c r="F2" t="n">
         <v>400</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -27397,7 +27397,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27436,10 +27436,10 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
@@ -27540,22 +27540,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27591,19 +27591,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>157.8778176401777</v>
+        <v>127.2876522192667</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27619,22 +27619,22 @@
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>7.254829457195569</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>83.52887324140022</v>
       </c>
       <c r="Y5" t="n">
-        <v>106.8856919847592</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27789,10 +27789,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,13 +27825,13 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>20.54651404373811</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27856,19 +27856,19 @@
         <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>112.7111826904426</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -27904,22 +27904,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>10.01608981175357</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>400</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28020,13 +28020,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>51.59070309447947</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>229.4233680290247</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -34696,13 +34696,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773343</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>40.34758805803972</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34714,10 +34714,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>613.8410568773343</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34772,13 +34772,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773343</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34787,16 +34787,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>47.47818213854839</v>
       </c>
       <c r="O3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34863,13 +34863,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>321.652344826955</v>
       </c>
       <c r="O4" t="n">
-        <v>34.867532687005</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -34942,22 +34942,22 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="P5" t="n">
-        <v>407.1525905495951</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>88.52591951401018</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,7 +35015,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35030,10 +35030,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>358.9284720888814</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,7 +35091,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35100,19 +35100,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>131.4804315655613</v>
+        <v>423.9083325512941</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>290.2128107706632</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>459.6491932314078</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,16 +35185,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314079</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697542</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.6491932314078</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35264,13 +35264,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="P9" t="n">
-        <v>288.2218006662745</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314079</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,7 +35328,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -35337,19 +35337,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314078</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>126.2275873803978</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35413,25 +35413,25 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>955.8742281294903</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.862691669754</v>
+        <v>40.81776196807186</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,13 +35489,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35653,7 +35653,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>40.81776196807323</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -35662,13 +35662,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>40.81776196807277</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35890,7 +35890,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>592.8367376838246</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -35899,13 +35899,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>40.81776196807277</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36124,7 +36124,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>955.8742281294903</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -36133,7 +36133,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>860.0355415814561</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458546</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36595,10 +36595,10 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>928.8008214318188</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
@@ -36610,7 +36610,7 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36765,7 +36765,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
@@ -36838,10 +36838,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -36999,7 +36999,7 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N31" t="n">
-        <v>446.726063795601</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
         <v>423.9083325512943</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37303,19 +37303,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>92.22506899525706</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>583.0591140826364</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37473,7 +37473,7 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N37" t="n">
-        <v>446.7260637956006</v>
+        <v>446.726063795601</v>
       </c>
       <c r="O37" t="n">
         <v>423.9083325512943</v>
@@ -37552,7 +37552,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>866.2895820207509</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37561,10 +37561,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37780,22 +37780,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>507.105909296742</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
@@ -38014,10 +38014,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
@@ -38026,7 +38026,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>753.9218057523904</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38038,7 +38038,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
